--- a/biology/Botanique/Euphorbia_seguieriana/Euphorbia_seguieriana.xlsx
+++ b/biology/Botanique/Euphorbia_seguieriana/Euphorbia_seguieriana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphorbe de Séguier
-L'Euphorbe de Séguier[1] (Euphorbia seguieriana) est une espèce de plantes herbacées de la famille des Euphorbiaceae.
+L'Euphorbe de Séguier (Euphorbia seguieriana) est une espèce de plantes herbacées de la famille des Euphorbiaceae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-François Séguier était un botaniste français (1703–1784).
 </t>
@@ -543,7 +557,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle fleurit de juin à août. Elle est hémicryptophyte.
 </t>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante vivace de 15 à 50 cm à nombreuses tiges. Elle contient un latex blanc. Les feuilles sont éparses. Les fleurs sont réduites, réunies en inflorescence complexe (cyathe) groupées en ombelles. Chaque cyathe est composée d'une fleur femelle entourée de fleurs mâles.
 À l'état stérile, elle peut être confondue avec Euphorbia cyparissias.
@@ -606,7 +624,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle croît en Europe méridionale et médiane et en Asie occidentale et centrale.
 </t>
@@ -637,7 +657,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelouses thermophiles.
 </t>
@@ -668,7 +690,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est inscrite dans la liste des espèces végétales protégées en Alsace, dans celle d'Aquitaine, celle de Franche-Comté, celle de Pays de la Loire et celle de Lorraine.
 </t>
@@ -699,7 +723,9 @@
           <t>Biotopes</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelouses sèches calcicoles. Berges de rivières.
 </t>
